--- a/Collate hour worked from employees ReFramework/Database/Employee table template.xlsx
+++ b/Collate hour worked from employees ReFramework/Database/Employee table template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\premal\Google Drive\QAC projects\HR automation\automation\HR-Payroll-automation\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\premal\Google Drive\QAC projects\HR automation\automation\HR-Payroll-automation\Collate hour worked from employees ReFramework\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E39D0A-3ED8-403B-9C10-01CAFFCAB4C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{233F8290-ECAE-47C0-BE02-376AABFC8962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22110" yWindow="3405" windowWidth="16020" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -362,9 +362,6 @@
     <t>Contracted hours</t>
   </si>
   <si>
-    <t>Hourly Rate (£)</t>
-  </si>
-  <si>
     <t>Hours worked</t>
   </si>
   <si>
@@ -381,15 +378,15 @@
   </si>
   <si>
     <t>Customer service</t>
+  </si>
+  <si>
+    <t>Hourly Rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -419,9 +416,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -706,7 +702,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I2"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,12 +710,12 @@
     <col min="8" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
         <v>102</v>
@@ -740,22 +736,22 @@
         <v>107</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" t="s">
         <v>109</v>
-      </c>
-      <c r="I1" t="s">
-        <v>110</v>
       </c>
       <c r="J1" t="s">
         <v>108</v>
       </c>
       <c r="K1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -778,11 +774,11 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H2" s="1">
         <f ca="1">RANDBETWEEN(7,25)</f>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I2">
         <v>80</v>
@@ -796,9 +792,9 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <f ca="1">H2*I2</f>
-        <v>960</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -825,7 +821,7 @@
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H21" ca="1" si="0">RANDBETWEEN(7,25)</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I3">
         <v>80</v>
@@ -839,9 +835,9 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <f t="shared" ref="M3:M21" ca="1" si="1">H3*I3</f>
-        <v>960</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -868,7 +864,7 @@
       </c>
       <c r="H4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4">
         <v>80</v>
@@ -882,9 +878,9 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>960</v>
+      <c r="M4" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>880</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -907,11 +903,11 @@
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I5">
         <v>80</v>
@@ -925,9 +921,9 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2000</v>
+      <c r="M5" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>1840</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -954,7 +950,7 @@
       </c>
       <c r="H6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I6">
         <v>80</v>
@@ -968,9 +964,9 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>560</v>
+      <c r="M6" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>1280</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1011,7 +1007,7 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>1360</v>
       </c>
@@ -1036,11 +1032,11 @@
         <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I8">
         <v>80</v>
@@ -1054,9 +1050,9 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>560</v>
+      <c r="M8" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>960</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1083,7 +1079,7 @@
       </c>
       <c r="H9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I9">
         <v>80</v>
@@ -1097,9 +1093,9 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>640</v>
+      <c r="M9" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>1120</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1126,7 +1122,7 @@
       </c>
       <c r="H10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I10">
         <v>80</v>
@@ -1140,9 +1136,9 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>640</v>
+      <c r="M10" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>880</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1165,11 +1161,11 @@
         <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I11">
         <v>80</v>
@@ -1183,9 +1179,9 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1680</v>
+      <c r="M11" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>1200</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1212,7 +1208,7 @@
       </c>
       <c r="H12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I12">
         <v>80</v>
@@ -1226,9 +1222,9 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1120</v>
+      <c r="M12" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>640</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1255,7 +1251,7 @@
       </c>
       <c r="H13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="I13">
         <v>80</v>
@@ -1269,9 +1265,9 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>640</v>
+      <c r="M13" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>1840</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1294,11 +1290,11 @@
         <v>66</v>
       </c>
       <c r="G14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I14">
         <v>80</v>
@@ -1312,9 +1308,9 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1360</v>
+      <c r="M14" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>960</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1341,7 +1337,7 @@
       </c>
       <c r="H15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I15">
         <v>80</v>
@@ -1355,9 +1351,9 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1520</v>
+      <c r="M15" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>1360</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1384,7 +1380,7 @@
       </c>
       <c r="H16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I16">
         <v>80</v>
@@ -1398,9 +1394,9 @@
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1040</v>
+      <c r="M16" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>1360</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1423,11 +1419,11 @@
         <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I17">
         <v>80</v>
@@ -1441,9 +1437,9 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1120</v>
+      <c r="M17" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>560</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1470,7 +1466,7 @@
       </c>
       <c r="H18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I18">
         <v>80</v>
@@ -1484,9 +1480,9 @@
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>640</v>
+      <c r="M18" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>1680</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1513,7 +1509,7 @@
       </c>
       <c r="H19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I19">
         <v>80</v>
@@ -1527,9 +1523,9 @@
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1040</v>
+      <c r="M19" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>1760</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1552,11 +1548,11 @@
         <v>96</v>
       </c>
       <c r="G20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I20">
         <v>80</v>
@@ -1570,9 +1566,9 @@
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1360</v>
+      <c r="M20" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>640</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1599,7 +1595,7 @@
       </c>
       <c r="H21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I21">
         <v>80</v>
@@ -1613,9 +1609,9 @@
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1520</v>
+      <c r="M21" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
